--- a/app/webroot/files/base/sac.xlsx
+++ b/app/webroot/files/base/sac.xlsx
@@ -209,9 +209,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,67 +549,97 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
@@ -652,8 +682,8 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <f>IF(B20&gt;B3,B3,B20)</f>
-        <v>0</v>
+        <f>IF(ISBLANK(B3),B20,IF(B20&gt;B3,B3,B20))</f>
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -662,7 +692,7 @@
       </c>
       <c r="B24">
         <f>B23-B22</f>
-        <v>-183</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -675,10 +705,10 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <f>(B25/2)*((B24+1)/B21)</f>
         <v>0</v>
       </c>
